--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10103_TOPメニュー.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10103_TOPメニュー.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B33666-9E7C-4132-98E1-A2C896F334D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41320B4-0ABA-450A-8E0B-0AA94F3F6F46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27225" windowHeight="7905" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -48,79 +48,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{55764191-68BE-49B4-AAEA-639712D824C1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」と訳してください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{999A2426-23D2-470B-BA27-B824C3B48225}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」と
-訳してください。あわせて表の中の訂正もお願いいたします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
@@ -138,34 +65,6 @@
 5. Screen event details
 6. Screen event supplement (1) * This section is described in the internal design process.
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{ADFD18AF-239B-49D3-9847-0233BD2EEE3D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-注釈の6番につきまして
-「内部設計工程」は
-「internal design proces」と訳してください。</t>
         </r>
       </text>
     </comment>
@@ -853,7 +752,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1012,21 +911,6 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1845,6 +1729,150 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1887,148 +1915,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2094,33 +2005,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2175,40 +2059,91 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2220,27 +2155,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2249,42 +2163,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2298,68 +2176,74 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3550,42 +3434,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3596,7 +3480,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3605,7 +3489,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3617,7 +3501,7 @@
       <c r="K25" s="132"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3626,7 +3510,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3635,7 +3519,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3644,7 +3528,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3652,7 +3536,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3661,7 +3545,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3670,7 +3554,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3679,7 +3563,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3691,7 +3575,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3706,515 +3590,515 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="34"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="33"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="36"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4238,170 +4122,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="180" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="186" t="s">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="133" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="133" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="139">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="133" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="180" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="133" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="177" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="174" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="139" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="133" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="180" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1">
+    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4443,7 +4327,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4487,7 +4371,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4529,1034 +4413,1034 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="159" t="s">
+      <c r="C7" s="150"/>
+      <c r="D7" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="159" t="s">
+      <c r="E7" s="149"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="149"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="159" t="s">
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="159" t="s">
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="160"/>
-    </row>
-    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="150"/>
+    </row>
+    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="164">
+      <c r="C8" s="176"/>
+      <c r="D8" s="177">
         <v>43599</v>
       </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="167"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="183" t="s">
+      <c r="H8" s="180"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="171" t="s">
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="172"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="172"/>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172"/>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="183" t="s">
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="137"/>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="137"/>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="184"/>
-      <c r="AI8" s="185"/>
-    </row>
-    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="161"/>
+      <c r="AH8" s="161"/>
+      <c r="AI8" s="162"/>
+    </row>
+    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="152"/>
-    </row>
-    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="145"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="159"/>
+    </row>
+    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="151"/>
-      <c r="AI10" s="152"/>
-    </row>
-    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="145"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="155"/>
+      <c r="AC10" s="155"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="159"/>
+    </row>
+    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="152"/>
-    </row>
-    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="145"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="155"/>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="155"/>
+      <c r="AC11" s="155"/>
+      <c r="AD11" s="155"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="157"/>
+      <c r="AG11" s="158"/>
+      <c r="AH11" s="158"/>
+      <c r="AI11" s="159"/>
+    </row>
+    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="152"/>
-    </row>
-    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="145"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="155"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="157"/>
+      <c r="AG12" s="158"/>
+      <c r="AH12" s="158"/>
+      <c r="AI12" s="159"/>
+    </row>
+    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="150"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="152"/>
-    </row>
-    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="145"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="155"/>
+      <c r="AC13" s="155"/>
+      <c r="AD13" s="155"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="157"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="158"/>
+      <c r="AI13" s="159"/>
+    </row>
+    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="150"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="152"/>
-    </row>
-    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="145"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="155"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="155"/>
+      <c r="AC14" s="155"/>
+      <c r="AD14" s="155"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="157"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="159"/>
+    </row>
+    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="152"/>
-    </row>
-    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="145"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="155"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="157"/>
+      <c r="AG15" s="158"/>
+      <c r="AH15" s="158"/>
+      <c r="AI15" s="159"/>
+    </row>
+    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="152"/>
-    </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="145"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="155"/>
+      <c r="T16" s="155"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="155"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="155"/>
+      <c r="AB16" s="155"/>
+      <c r="AC16" s="155"/>
+      <c r="AD16" s="155"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="157"/>
+      <c r="AG16" s="158"/>
+      <c r="AH16" s="158"/>
+      <c r="AI16" s="159"/>
+    </row>
+    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="150"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="152"/>
-    </row>
-    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="145"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="159"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="155"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="155"/>
+      <c r="Z17" s="155"/>
+      <c r="AA17" s="155"/>
+      <c r="AB17" s="155"/>
+      <c r="AC17" s="155"/>
+      <c r="AD17" s="155"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="157"/>
+      <c r="AG17" s="158"/>
+      <c r="AH17" s="158"/>
+      <c r="AI17" s="159"/>
+    </row>
+    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="150"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="152"/>
-    </row>
-    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="145"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
+      <c r="AB18" s="155"/>
+      <c r="AC18" s="155"/>
+      <c r="AD18" s="155"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="157"/>
+      <c r="AG18" s="158"/>
+      <c r="AH18" s="158"/>
+      <c r="AI18" s="159"/>
+    </row>
+    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="150"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="152"/>
-    </row>
-    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="145"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
+      <c r="AB19" s="155"/>
+      <c r="AC19" s="155"/>
+      <c r="AD19" s="155"/>
+      <c r="AE19" s="156"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="158"/>
+      <c r="AH19" s="158"/>
+      <c r="AI19" s="159"/>
+    </row>
+    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="150"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="152"/>
-    </row>
-    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="145"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="159"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="155"/>
+      <c r="T20" s="155"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="155"/>
+      <c r="AC20" s="155"/>
+      <c r="AD20" s="155"/>
+      <c r="AE20" s="156"/>
+      <c r="AF20" s="157"/>
+      <c r="AG20" s="158"/>
+      <c r="AH20" s="158"/>
+      <c r="AI20" s="159"/>
+    </row>
+    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="150"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="152"/>
-    </row>
-    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="145"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="155"/>
+      <c r="S21" s="155"/>
+      <c r="T21" s="155"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="155"/>
+      <c r="AC21" s="155"/>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="156"/>
+      <c r="AF21" s="157"/>
+      <c r="AG21" s="158"/>
+      <c r="AH21" s="158"/>
+      <c r="AI21" s="159"/>
+    </row>
+    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="150"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="152"/>
-    </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="145"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="155"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="155"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="155"/>
+      <c r="AD22" s="155"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="157"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="159"/>
+    </row>
+    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="150"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="152"/>
-    </row>
-    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="145"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="155"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="155"/>
+      <c r="AC23" s="155"/>
+      <c r="AD23" s="155"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="157"/>
+      <c r="AG23" s="158"/>
+      <c r="AH23" s="158"/>
+      <c r="AI23" s="159"/>
+    </row>
+    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="150"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="152"/>
-    </row>
-    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="145"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="159"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="155"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="155"/>
+      <c r="AC24" s="155"/>
+      <c r="AD24" s="155"/>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="157"/>
+      <c r="AG24" s="158"/>
+      <c r="AH24" s="158"/>
+      <c r="AI24" s="159"/>
+    </row>
+    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="150"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="152"/>
-    </row>
-    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="145"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="159"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="155"/>
+      <c r="S25" s="155"/>
+      <c r="T25" s="155"/>
+      <c r="U25" s="155"/>
+      <c r="V25" s="155"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
+      <c r="AD25" s="155"/>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="157"/>
+      <c r="AG25" s="158"/>
+      <c r="AH25" s="158"/>
+      <c r="AI25" s="159"/>
+    </row>
+    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="150"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="152"/>
-    </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="145"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="157"/>
+      <c r="AG26" s="158"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="159"/>
+    </row>
+    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="150"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="152"/>
-    </row>
-    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="145"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155"/>
+      <c r="AC27" s="155"/>
+      <c r="AD27" s="155"/>
+      <c r="AE27" s="156"/>
+      <c r="AF27" s="157"/>
+      <c r="AG27" s="158"/>
+      <c r="AH27" s="158"/>
+      <c r="AI27" s="159"/>
+    </row>
+    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="150"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="152"/>
-    </row>
-    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="145"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="157"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="159"/>
+    </row>
+    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="152"/>
-    </row>
-    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="145"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="155"/>
+      <c r="T29" s="155"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="155"/>
+      <c r="AD29" s="155"/>
+      <c r="AE29" s="156"/>
+      <c r="AF29" s="157"/>
+      <c r="AG29" s="158"/>
+      <c r="AH29" s="158"/>
+      <c r="AI29" s="159"/>
+    </row>
+    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="152"/>
-    </row>
-    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="145"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="155"/>
+      <c r="S30" s="155"/>
+      <c r="T30" s="155"/>
+      <c r="U30" s="155"/>
+      <c r="V30" s="155"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="155"/>
+      <c r="AC30" s="155"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="156"/>
+      <c r="AF30" s="157"/>
+      <c r="AG30" s="158"/>
+      <c r="AH30" s="158"/>
+      <c r="AI30" s="159"/>
+    </row>
+    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="150"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="152"/>
-    </row>
-    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="145"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="155"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="155"/>
+      <c r="AD31" s="155"/>
+      <c r="AE31" s="156"/>
+      <c r="AF31" s="157"/>
+      <c r="AG31" s="158"/>
+      <c r="AH31" s="158"/>
+      <c r="AI31" s="159"/>
+    </row>
+    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="150"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="152"/>
-    </row>
-    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="145"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="156"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="158"/>
+      <c r="AH32" s="158"/>
+      <c r="AI32" s="159"/>
+    </row>
+    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="150"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="152"/>
-    </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+      <c r="B33" s="145"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="156"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="158"/>
+      <c r="AH33" s="158"/>
+      <c r="AI33" s="159"/>
+    </row>
+    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -5595,161 +5479,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5774,6 +5503,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5783,7 +5667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5793,7 +5677,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="49" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="57" customWidth="1"/>
@@ -5928,161 +5812,161 @@
     <col min="16163" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="216" t="str">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="222">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="198">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="224"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
-      <c r="A2" s="195" t="s">
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="216" t="str">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="219" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="222" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="224"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
-      <c r="A3" s="195" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="216" t="str">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="219" t="str">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="222" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="223"/>
-      <c r="AI3" s="224"/>
-    </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
+    </row>
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -6119,7 +6003,7 @@
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -6158,7 +6042,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -6195,7 +6079,7 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
         <v>149</v>
@@ -6234,7 +6118,7 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
@@ -6273,7 +6157,7 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
@@ -6310,7 +6194,7 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
         <v>43</v>
@@ -6349,7 +6233,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
@@ -6388,7 +6272,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
@@ -6422,7 +6306,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
@@ -6461,7 +6345,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
@@ -6500,7 +6384,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
@@ -6535,7 +6419,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
@@ -6574,7 +6458,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
       <c r="B17" s="38"/>
       <c r="C17" s="56"/>
@@ -6610,7 +6494,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -6647,7 +6531,7 @@
       <c r="AH18" s="64"/>
       <c r="AI18" s="65"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6681,7 +6565,7 @@
       <c r="AH19" s="64"/>
       <c r="AI19" s="65"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="66"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -6709,7 +6593,7 @@
       <c r="AH20" s="64"/>
       <c r="AI20" s="65"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
@@ -6736,7 +6620,7 @@
       <c r="AH21" s="69"/>
       <c r="AI21" s="58"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K22" s="66"/>
       <c r="L22" s="66"/>
       <c r="M22" s="66"/>
@@ -6761,7 +6645,7 @@
       <c r="AH22" s="75"/>
       <c r="AI22" s="71"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S23" s="71"/>
       <c r="T23" s="71"/>
       <c r="U23" s="72"/>
@@ -6780,7 +6664,7 @@
       <c r="AH23" s="78"/>
       <c r="AI23" s="71"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J24" s="66"/>
       <c r="Q24" s="79"/>
       <c r="S24" s="71"/>
@@ -6801,7 +6685,7 @@
       <c r="AH24" s="78"/>
       <c r="AI24" s="71"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -6820,7 +6704,7 @@
       <c r="AH25" s="78"/>
       <c r="AI25" s="71"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66"/>
       <c r="K26" s="66"/>
       <c r="L26" s="66"/>
@@ -6834,7 +6718,7 @@
       <c r="AH26" s="78"/>
       <c r="AI26" s="71"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66"/>
       <c r="AE27" s="71"/>
       <c r="AF27" s="76"/>
@@ -6842,28 +6726,28 @@
       <c r="AH27" s="78"/>
       <c r="AI27" s="71"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE28" s="71"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="78"/>
       <c r="AI28" s="71"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF29" s="80"/>
       <c r="AG29" s="80"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG30" s="80"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF31" s="80"/>
       <c r="AG31" s="80"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG32" s="80"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33" s="66"/>
       <c r="T33" s="66"/>
       <c r="V33" s="66"/>
@@ -6876,7 +6760,7 @@
       <c r="AC33" s="66"/>
       <c r="AD33" s="66"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R34" s="66"/>
       <c r="S34" s="66"/>
       <c r="T34" s="66"/>
@@ -6891,10 +6775,10 @@
       <c r="AD34" s="66"/>
       <c r="AG34" s="80"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R35" s="66"/>
     </row>
-    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -6927,7 +6811,7 @@
       <c r="AD36" s="49"/>
       <c r="AH36" s="79"/>
     </row>
-    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
@@ -6962,14 +6846,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6979,198 +6855,205 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:AG8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="216" t="str">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="222">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="198">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="224"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1">
-      <c r="A2" s="195" t="s">
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="216" t="str">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="219" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="222" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="224"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1">
-      <c r="A3" s="195" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="216" t="str">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="219" t="str">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="222" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="223"/>
-      <c r="AI3" s="224"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="235" t="s">
         <v>152</v>
@@ -7208,7 +7091,7 @@
       <c r="AF8" s="236"/>
       <c r="AG8" s="237"/>
     </row>
-    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="240" t="s">
         <v>151</v>
@@ -7246,7 +7129,7 @@
       <c r="AF9" s="236"/>
       <c r="AG9" s="237"/>
     </row>
-    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="226" t="s">
         <v>153</v>
@@ -7284,7 +7167,7 @@
       <c r="AF10" s="83"/>
       <c r="AG10" s="84"/>
     </row>
-    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="81"/>
       <c r="C11" s="229"/>
       <c r="D11" s="230"/>
@@ -7318,7 +7201,7 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="86"/>
     </row>
-    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="81"/>
       <c r="C12" s="229"/>
       <c r="D12" s="230"/>
@@ -7352,7 +7235,7 @@
       <c r="AF12" s="40"/>
       <c r="AG12" s="86"/>
     </row>
-    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="81"/>
       <c r="C13" s="232"/>
       <c r="D13" s="233"/>
@@ -7386,7 +7269,7 @@
       <c r="AF13" s="89"/>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="81"/>
       <c r="C14" s="225" t="s">
         <v>53</v>
@@ -7424,58 +7307,46 @@
       <c r="AF14" s="92"/>
       <c r="AG14" s="93"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7487,6 +7358,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7495,7 +7378,6 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7510,215 +7392,215 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="4.83203125" style="54"/>
     <col min="8" max="9" width="4.83203125" style="54" customWidth="1"/>
     <col min="10" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1">
-      <c r="A1" s="274" t="s">
+    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="216" t="str">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="271">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="285">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="273"/>
+      <c r="AH1" s="286"/>
+      <c r="AI1" s="287"/>
       <c r="AJ1" s="94"/>
     </row>
-    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1">
-      <c r="A2" s="274" t="s">
+    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="216" t="str">
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="219" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="271" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="285" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="272"/>
-      <c r="AI2" s="273"/>
+      <c r="AH2" s="286"/>
+      <c r="AI2" s="287"/>
       <c r="AJ2" s="94"/>
     </row>
-    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1">
-      <c r="A3" s="274" t="s">
+    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="288" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="275"/>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="216" t="str">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="219" t="str">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="271" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="285" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="272"/>
-      <c r="AI3" s="273"/>
+      <c r="AH3" s="286"/>
+      <c r="AI3" s="287"/>
       <c r="AJ3" s="94"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1">
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="96"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -7751,7 +7633,7 @@
       <c r="AG40" s="96"/>
       <c r="AH40" s="96"/>
     </row>
-    <row r="41" spans="3:53">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C41" s="40" t="s">
         <v>45</v>
       </c>
@@ -7786,7 +7668,7 @@
       <c r="AG41" s="96"/>
       <c r="AH41" s="96"/>
     </row>
-    <row r="42" spans="3:53">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C42" s="40"/>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -7819,89 +7701,89 @@
       <c r="AG42" s="96"/>
       <c r="AH42" s="96"/>
     </row>
-    <row r="43" spans="3:53">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="264" t="s">
+      <c r="E43" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="264"/>
-      <c r="G43" s="264"/>
-      <c r="H43" s="264"/>
-      <c r="I43" s="264"/>
-      <c r="J43" s="264"/>
-      <c r="K43" s="264"/>
-      <c r="L43" s="264"/>
-      <c r="M43" s="264"/>
-      <c r="N43" s="264" t="s">
+      <c r="F43" s="291"/>
+      <c r="G43" s="291"/>
+      <c r="H43" s="291"/>
+      <c r="I43" s="291"/>
+      <c r="J43" s="291"/>
+      <c r="K43" s="291"/>
+      <c r="L43" s="291"/>
+      <c r="M43" s="291"/>
+      <c r="N43" s="291" t="s">
         <v>56</v>
       </c>
-      <c r="O43" s="264"/>
-      <c r="P43" s="264"/>
-      <c r="Q43" s="264" t="s">
+      <c r="O43" s="291"/>
+      <c r="P43" s="291"/>
+      <c r="Q43" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="264"/>
-      <c r="S43" s="264"/>
-      <c r="T43" s="264"/>
-      <c r="U43" s="264"/>
-      <c r="V43" s="264" t="s">
+      <c r="R43" s="291"/>
+      <c r="S43" s="291"/>
+      <c r="T43" s="291"/>
+      <c r="U43" s="291"/>
+      <c r="V43" s="291" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="264"/>
-      <c r="X43" s="264"/>
-      <c r="Y43" s="264"/>
-      <c r="Z43" s="264"/>
-      <c r="AA43" s="264"/>
-      <c r="AB43" s="264"/>
-      <c r="AC43" s="264"/>
+      <c r="W43" s="291"/>
+      <c r="X43" s="291"/>
+      <c r="Y43" s="291"/>
+      <c r="Z43" s="291"/>
+      <c r="AA43" s="291"/>
+      <c r="AB43" s="291"/>
+      <c r="AC43" s="291"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
       <c r="AG43" s="96"/>
       <c r="AH43" s="96"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="258" t="s">
+      <c r="E44" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="258"/>
-      <c r="G44" s="258"/>
-      <c r="H44" s="258"/>
-      <c r="I44" s="258"/>
-      <c r="J44" s="258"/>
-      <c r="K44" s="258"/>
-      <c r="L44" s="258"/>
-      <c r="M44" s="258"/>
-      <c r="N44" s="258" t="s">
+      <c r="F44" s="305"/>
+      <c r="G44" s="305"/>
+      <c r="H44" s="305"/>
+      <c r="I44" s="305"/>
+      <c r="J44" s="305"/>
+      <c r="K44" s="305"/>
+      <c r="L44" s="305"/>
+      <c r="M44" s="305"/>
+      <c r="N44" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="258"/>
-      <c r="P44" s="258"/>
-      <c r="Q44" s="252" t="s">
+      <c r="O44" s="305"/>
+      <c r="P44" s="305"/>
+      <c r="Q44" s="302" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="252"/>
-      <c r="S44" s="252"/>
-      <c r="T44" s="252"/>
-      <c r="U44" s="252"/>
-      <c r="V44" s="252" t="s">
+      <c r="R44" s="302"/>
+      <c r="S44" s="302"/>
+      <c r="T44" s="302"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="302" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="252"/>
-      <c r="X44" s="252"/>
-      <c r="Y44" s="252"/>
-      <c r="Z44" s="252"/>
-      <c r="AA44" s="252"/>
-      <c r="AB44" s="252"/>
-      <c r="AC44" s="252"/>
+      <c r="W44" s="302"/>
+      <c r="X44" s="302"/>
+      <c r="Y44" s="302"/>
+      <c r="Z44" s="302"/>
+      <c r="AA44" s="302"/>
+      <c r="AB44" s="302"/>
+      <c r="AC44" s="302"/>
       <c r="AM44" s="40"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
       <c r="F45" s="100"/>
@@ -7930,10 +7812,10 @@
       <c r="AC45" s="96"/>
       <c r="AM45" s="40"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O46" s="100"/>
     </row>
-    <row r="47" spans="3:53">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
         <v>46</v>
       </c>
@@ -7955,7 +7837,7 @@
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
     </row>
-    <row r="48" spans="3:53" s="58" customFormat="1">
+    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AJ48" s="49"/>
       <c r="AK48" s="49"/>
       <c r="AL48" s="49"/>
@@ -7974,37 +7856,37 @@
       <c r="AY48" s="49"/>
       <c r="AZ48" s="49"/>
     </row>
-    <row r="49" spans="3:53" s="58" customFormat="1">
-      <c r="D49" s="243" t="s">
+    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="255" t="s">
+      <c r="E49" s="272" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="256"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="256"/>
-      <c r="I49" s="256"/>
-      <c r="J49" s="256"/>
-      <c r="K49" s="256"/>
-      <c r="L49" s="256"/>
-      <c r="M49" s="256"/>
-      <c r="N49" s="256"/>
-      <c r="O49" s="256"/>
-      <c r="P49" s="256"/>
-      <c r="Q49" s="256"/>
-      <c r="R49" s="256"/>
-      <c r="S49" s="256"/>
-      <c r="T49" s="256"/>
-      <c r="U49" s="256"/>
-      <c r="V49" s="256"/>
-      <c r="W49" s="256"/>
-      <c r="X49" s="256"/>
-      <c r="Y49" s="256"/>
-      <c r="Z49" s="256"/>
-      <c r="AA49" s="256"/>
-      <c r="AB49" s="256"/>
-      <c r="AC49" s="257"/>
+      <c r="F49" s="273"/>
+      <c r="G49" s="273"/>
+      <c r="H49" s="273"/>
+      <c r="I49" s="273"/>
+      <c r="J49" s="273"/>
+      <c r="K49" s="273"/>
+      <c r="L49" s="273"/>
+      <c r="M49" s="273"/>
+      <c r="N49" s="273"/>
+      <c r="O49" s="273"/>
+      <c r="P49" s="273"/>
+      <c r="Q49" s="273"/>
+      <c r="R49" s="273"/>
+      <c r="S49" s="273"/>
+      <c r="T49" s="273"/>
+      <c r="U49" s="273"/>
+      <c r="V49" s="273"/>
+      <c r="W49" s="273"/>
+      <c r="X49" s="273"/>
+      <c r="Y49" s="273"/>
+      <c r="Z49" s="273"/>
+      <c r="AA49" s="273"/>
+      <c r="AB49" s="273"/>
+      <c r="AC49" s="274"/>
       <c r="AD49" s="226" t="s">
         <v>60</v>
       </c>
@@ -8022,30 +7904,30 @@
       <c r="AP49" s="81"/>
       <c r="AQ49" s="81"/>
     </row>
-    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
-      <c r="D50" s="244"/>
+    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="294"/>
       <c r="E50" s="226" t="s">
         <v>61</v>
       </c>
       <c r="F50" s="227"/>
       <c r="G50" s="227"/>
       <c r="H50" s="228"/>
-      <c r="I50" s="246" t="s">
+      <c r="I50" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="247"/>
-      <c r="K50" s="247"/>
-      <c r="L50" s="248"/>
-      <c r="M50" s="246" t="s">
+      <c r="J50" s="297"/>
+      <c r="K50" s="297"/>
+      <c r="L50" s="298"/>
+      <c r="M50" s="296" t="s">
         <v>63</v>
       </c>
-      <c r="N50" s="247"/>
-      <c r="O50" s="247"/>
-      <c r="P50" s="247"/>
-      <c r="Q50" s="247"/>
-      <c r="R50" s="247"/>
-      <c r="S50" s="247"/>
-      <c r="T50" s="248"/>
+      <c r="N50" s="297"/>
+      <c r="O50" s="297"/>
+      <c r="P50" s="297"/>
+      <c r="Q50" s="297"/>
+      <c r="R50" s="297"/>
+      <c r="S50" s="297"/>
+      <c r="T50" s="298"/>
       <c r="U50" s="226" t="s">
         <v>64</v>
       </c>
@@ -8058,7 +7940,7 @@
       </c>
       <c r="AA50" s="227"/>
       <c r="AB50" s="228"/>
-      <c r="AC50" s="243" t="s">
+      <c r="AC50" s="293" t="s">
         <v>155</v>
       </c>
       <c r="AD50" s="229"/>
@@ -8079,24 +7961,24 @@
       <c r="AS50" s="49"/>
       <c r="AT50" s="49"/>
     </row>
-    <row r="51" spans="3:53" s="58" customFormat="1">
-      <c r="D51" s="245"/>
+    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="295"/>
       <c r="E51" s="232"/>
       <c r="F51" s="233"/>
       <c r="G51" s="233"/>
       <c r="H51" s="234"/>
-      <c r="I51" s="249"/>
-      <c r="J51" s="250"/>
-      <c r="K51" s="250"/>
-      <c r="L51" s="251"/>
-      <c r="M51" s="249"/>
-      <c r="N51" s="250"/>
-      <c r="O51" s="250"/>
-      <c r="P51" s="250"/>
-      <c r="Q51" s="250"/>
-      <c r="R51" s="250"/>
-      <c r="S51" s="250"/>
-      <c r="T51" s="251"/>
+      <c r="I51" s="299"/>
+      <c r="J51" s="300"/>
+      <c r="K51" s="300"/>
+      <c r="L51" s="301"/>
+      <c r="M51" s="299"/>
+      <c r="N51" s="300"/>
+      <c r="O51" s="300"/>
+      <c r="P51" s="300"/>
+      <c r="Q51" s="300"/>
+      <c r="R51" s="300"/>
+      <c r="S51" s="300"/>
+      <c r="T51" s="301"/>
       <c r="U51" s="232"/>
       <c r="V51" s="233"/>
       <c r="W51" s="233"/>
@@ -8105,7 +7987,7 @@
       <c r="Z51" s="232"/>
       <c r="AA51" s="233"/>
       <c r="AB51" s="234"/>
-      <c r="AC51" s="245"/>
+      <c r="AC51" s="295"/>
       <c r="AD51" s="232"/>
       <c r="AE51" s="233"/>
       <c r="AF51" s="233"/>
@@ -8124,7 +8006,7 @@
       <c r="AS51" s="49"/>
       <c r="AT51" s="49"/>
     </row>
-    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
+    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="101">
         <v>1</v>
       </c>
@@ -8133,44 +8015,44 @@
       </c>
       <c r="F52" s="239"/>
       <c r="G52" s="239"/>
-      <c r="H52" s="253"/>
-      <c r="I52" s="254" t="s">
+      <c r="H52" s="303"/>
+      <c r="I52" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="254"/>
-      <c r="K52" s="254"/>
-      <c r="L52" s="254"/>
-      <c r="M52" s="259" t="s">
+      <c r="J52" s="304"/>
+      <c r="K52" s="304"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="259"/>
-      <c r="O52" s="259"/>
-      <c r="P52" s="259"/>
-      <c r="Q52" s="259"/>
-      <c r="R52" s="259"/>
-      <c r="S52" s="259"/>
-      <c r="T52" s="259"/>
-      <c r="U52" s="263" t="s">
+      <c r="N52" s="306"/>
+      <c r="O52" s="306"/>
+      <c r="P52" s="306"/>
+      <c r="Q52" s="306"/>
+      <c r="R52" s="306"/>
+      <c r="S52" s="306"/>
+      <c r="T52" s="306"/>
+      <c r="U52" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="263"/>
-      <c r="W52" s="263"/>
-      <c r="X52" s="263"/>
-      <c r="Y52" s="263"/>
-      <c r="Z52" s="263" t="s">
+      <c r="V52" s="292"/>
+      <c r="W52" s="292"/>
+      <c r="X52" s="292"/>
+      <c r="Y52" s="292"/>
+      <c r="Z52" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="263"/>
-      <c r="AB52" s="263"/>
+      <c r="AA52" s="292"/>
+      <c r="AB52" s="292"/>
       <c r="AC52" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" s="260" t="s">
+      <c r="AD52" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="261"/>
-      <c r="AF52" s="261"/>
-      <c r="AG52" s="262"/>
+      <c r="AE52" s="254"/>
+      <c r="AF52" s="254"/>
+      <c r="AG52" s="255"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -8185,10 +8067,10 @@
       <c r="AS52" s="49"/>
       <c r="AT52" s="49"/>
     </row>
-    <row r="53" spans="3:53" ht="11.25" customHeight="1">
+    <row r="53" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AY53" s="56"/>
     </row>
-    <row r="54" spans="3:53">
+    <row r="54" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D54" s="103"/>
       <c r="E54" s="104"/>
       <c r="F54" s="105"/>
@@ -8230,7 +8112,7 @@
       <c r="AR54" s="42"/>
       <c r="AS54" s="42"/>
     </row>
-    <row r="55" spans="3:53">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C55" s="54" t="s">
         <v>47</v>
       </c>
@@ -8275,7 +8157,7 @@
       <c r="AR55" s="42"/>
       <c r="AS55" s="42"/>
     </row>
-    <row r="56" spans="3:53" ht="11.25" customHeight="1">
+    <row r="56" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AI56" s="105"/>
       <c r="AJ56" s="105"/>
       <c r="AK56" s="42"/>
@@ -8292,25 +8174,25 @@
       <c r="AV56" s="42"/>
       <c r="AW56" s="42"/>
     </row>
-    <row r="57" spans="3:53">
-      <c r="D57" s="292" t="s">
+    <row r="57" spans="3:53" x14ac:dyDescent="0.2">
+      <c r="D57" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="294" t="s">
+      <c r="E57" s="261" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="295"/>
-      <c r="G57" s="295"/>
-      <c r="H57" s="295"/>
-      <c r="I57" s="295"/>
-      <c r="J57" s="296"/>
-      <c r="K57" s="294" t="s">
+      <c r="F57" s="262"/>
+      <c r="G57" s="262"/>
+      <c r="H57" s="262"/>
+      <c r="I57" s="262"/>
+      <c r="J57" s="263"/>
+      <c r="K57" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="L57" s="295"/>
-      <c r="M57" s="295"/>
-      <c r="N57" s="296"/>
-      <c r="O57" s="280" t="s">
+      <c r="L57" s="262"/>
+      <c r="M57" s="262"/>
+      <c r="N57" s="263"/>
+      <c r="O57" s="278" t="s">
         <v>68</v>
       </c>
       <c r="P57" s="107" t="s">
@@ -8321,21 +8203,21 @@
       <c r="S57" s="108"/>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
-      <c r="V57" s="294" t="s">
+      <c r="V57" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="295"/>
-      <c r="X57" s="295"/>
-      <c r="Y57" s="295"/>
-      <c r="Z57" s="295"/>
-      <c r="AA57" s="295"/>
-      <c r="AB57" s="295"/>
-      <c r="AC57" s="295"/>
-      <c r="AD57" s="295"/>
-      <c r="AE57" s="295"/>
-      <c r="AF57" s="295"/>
-      <c r="AG57" s="295"/>
-      <c r="AH57" s="296"/>
+      <c r="W57" s="262"/>
+      <c r="X57" s="262"/>
+      <c r="Y57" s="262"/>
+      <c r="Z57" s="262"/>
+      <c r="AA57" s="262"/>
+      <c r="AB57" s="262"/>
+      <c r="AC57" s="262"/>
+      <c r="AD57" s="262"/>
+      <c r="AE57" s="262"/>
+      <c r="AF57" s="262"/>
+      <c r="AG57" s="262"/>
+      <c r="AH57" s="263"/>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
@@ -8350,19 +8232,19 @@
       <c r="AV57" s="42"/>
       <c r="AW57" s="42"/>
     </row>
-    <row r="58" spans="3:53">
-      <c r="D58" s="293"/>
-      <c r="E58" s="297"/>
-      <c r="F58" s="298"/>
-      <c r="G58" s="298"/>
-      <c r="H58" s="298"/>
-      <c r="I58" s="298"/>
-      <c r="J58" s="299"/>
-      <c r="K58" s="297"/>
-      <c r="L58" s="298"/>
-      <c r="M58" s="298"/>
-      <c r="N58" s="299"/>
-      <c r="O58" s="281"/>
+    <row r="58" spans="3:53" x14ac:dyDescent="0.2">
+      <c r="D58" s="260"/>
+      <c r="E58" s="264"/>
+      <c r="F58" s="265"/>
+      <c r="G58" s="265"/>
+      <c r="H58" s="265"/>
+      <c r="I58" s="265"/>
+      <c r="J58" s="266"/>
+      <c r="K58" s="264"/>
+      <c r="L58" s="265"/>
+      <c r="M58" s="265"/>
+      <c r="N58" s="266"/>
+      <c r="O58" s="279"/>
       <c r="P58" s="109" t="s">
         <v>70</v>
       </c>
@@ -8375,23 +8257,23 @@
       <c r="S58" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="T58" s="300" t="s">
+      <c r="T58" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="U58" s="301"/>
-      <c r="V58" s="297"/>
-      <c r="W58" s="298"/>
-      <c r="X58" s="298"/>
-      <c r="Y58" s="298"/>
-      <c r="Z58" s="298"/>
-      <c r="AA58" s="298"/>
-      <c r="AB58" s="298"/>
-      <c r="AC58" s="298"/>
-      <c r="AD58" s="298"/>
-      <c r="AE58" s="298"/>
-      <c r="AF58" s="298"/>
-      <c r="AG58" s="298"/>
-      <c r="AH58" s="299"/>
+      <c r="U58" s="268"/>
+      <c r="V58" s="264"/>
+      <c r="W58" s="265"/>
+      <c r="X58" s="265"/>
+      <c r="Y58" s="265"/>
+      <c r="Z58" s="265"/>
+      <c r="AA58" s="265"/>
+      <c r="AB58" s="265"/>
+      <c r="AC58" s="265"/>
+      <c r="AD58" s="265"/>
+      <c r="AE58" s="265"/>
+      <c r="AF58" s="265"/>
+      <c r="AG58" s="265"/>
+      <c r="AH58" s="266"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8406,24 +8288,24 @@
       <c r="AV58" s="42"/>
       <c r="AW58" s="42"/>
     </row>
-    <row r="59" spans="3:53">
+    <row r="59" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D59" s="110">
         <v>1</v>
       </c>
-      <c r="E59" s="282" t="s">
+      <c r="E59" s="280" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="283"/>
-      <c r="G59" s="283"/>
-      <c r="H59" s="283"/>
-      <c r="I59" s="283"/>
-      <c r="J59" s="284"/>
-      <c r="K59" s="260" t="s">
+      <c r="F59" s="281"/>
+      <c r="G59" s="281"/>
+      <c r="H59" s="281"/>
+      <c r="I59" s="281"/>
+      <c r="J59" s="282"/>
+      <c r="K59" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="261"/>
-      <c r="M59" s="261"/>
-      <c r="N59" s="262"/>
+      <c r="L59" s="254"/>
+      <c r="M59" s="254"/>
+      <c r="N59" s="255"/>
       <c r="O59" s="111"/>
       <c r="P59" s="112" t="s">
         <v>39</v>
@@ -8437,25 +8319,25 @@
       <c r="S59" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="305" t="s">
+      <c r="T59" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="U59" s="306"/>
-      <c r="V59" s="260" t="s">
+      <c r="U59" s="252"/>
+      <c r="V59" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="261"/>
-      <c r="X59" s="261"/>
-      <c r="Y59" s="261"/>
-      <c r="Z59" s="261"/>
-      <c r="AA59" s="261"/>
-      <c r="AB59" s="261"/>
-      <c r="AC59" s="261"/>
-      <c r="AD59" s="261"/>
-      <c r="AE59" s="261"/>
-      <c r="AF59" s="261"/>
-      <c r="AG59" s="261"/>
-      <c r="AH59" s="262"/>
+      <c r="W59" s="254"/>
+      <c r="X59" s="254"/>
+      <c r="Y59" s="254"/>
+      <c r="Z59" s="254"/>
+      <c r="AA59" s="254"/>
+      <c r="AB59" s="254"/>
+      <c r="AC59" s="254"/>
+      <c r="AD59" s="254"/>
+      <c r="AE59" s="254"/>
+      <c r="AF59" s="254"/>
+      <c r="AG59" s="254"/>
+      <c r="AH59" s="255"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8470,7 +8352,7 @@
       <c r="AV59" s="42"/>
       <c r="AW59" s="42"/>
     </row>
-    <row r="60" spans="3:53">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D60" s="113"/>
       <c r="E60" s="114"/>
       <c r="F60" s="114"/>
@@ -8518,7 +8400,7 @@
       <c r="AZ60" s="42"/>
       <c r="BA60" s="42"/>
     </row>
-    <row r="61" spans="3:53">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D61" s="103"/>
       <c r="E61" s="104"/>
       <c r="F61" s="105"/>
@@ -8562,7 +8444,7 @@
       <c r="AZ61" s="42"/>
       <c r="BA61" s="42"/>
     </row>
-    <row r="62" spans="3:53">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C62" s="54" t="s">
         <v>48</v>
       </c>
@@ -8576,374 +8458,374 @@
       <c r="AZ62" s="42"/>
       <c r="BA62" s="42"/>
     </row>
-    <row r="64" spans="3:53" ht="11.25" customHeight="1">
+    <row r="64" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="116"/>
       <c r="D64" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="285" t="s">
+      <c r="E64" s="283" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="286"/>
-      <c r="G64" s="286"/>
-      <c r="H64" s="286"/>
-      <c r="I64" s="286"/>
-      <c r="J64" s="287"/>
-      <c r="K64" s="285" t="s">
+      <c r="F64" s="249"/>
+      <c r="G64" s="249"/>
+      <c r="H64" s="249"/>
+      <c r="I64" s="249"/>
+      <c r="J64" s="284"/>
+      <c r="K64" s="283" t="s">
         <v>76</v>
       </c>
-      <c r="L64" s="286"/>
-      <c r="M64" s="286"/>
-      <c r="N64" s="286"/>
-      <c r="O64" s="286"/>
-      <c r="P64" s="286"/>
-      <c r="Q64" s="288"/>
+      <c r="L64" s="249"/>
+      <c r="M64" s="249"/>
+      <c r="N64" s="249"/>
+      <c r="O64" s="249"/>
+      <c r="P64" s="249"/>
+      <c r="Q64" s="250"/>
       <c r="R64" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="S64" s="286"/>
-      <c r="T64" s="286"/>
-      <c r="U64" s="286"/>
-      <c r="V64" s="286"/>
-      <c r="W64" s="286"/>
-      <c r="X64" s="286"/>
-      <c r="Y64" s="288"/>
-      <c r="Z64" s="255" t="s">
+      <c r="S64" s="249"/>
+      <c r="T64" s="249"/>
+      <c r="U64" s="249"/>
+      <c r="V64" s="249"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="249"/>
+      <c r="Y64" s="250"/>
+      <c r="Z64" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="AA64" s="256"/>
-      <c r="AB64" s="256"/>
-      <c r="AC64" s="256"/>
-      <c r="AD64" s="257"/>
-      <c r="AE64" s="302" t="s">
+      <c r="AA64" s="273"/>
+      <c r="AB64" s="273"/>
+      <c r="AC64" s="273"/>
+      <c r="AD64" s="274"/>
+      <c r="AE64" s="269" t="s">
         <v>79</v>
       </c>
-      <c r="AF64" s="303"/>
-      <c r="AG64" s="303"/>
-      <c r="AH64" s="304"/>
-    </row>
-    <row r="65" spans="1:56" ht="27" customHeight="1">
+      <c r="AF64" s="270"/>
+      <c r="AG64" s="270"/>
+      <c r="AH64" s="271"/>
+    </row>
+    <row r="65" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="289" t="s">
+      <c r="E65" s="256" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="290"/>
-      <c r="G65" s="290"/>
-      <c r="H65" s="290"/>
-      <c r="I65" s="290"/>
-      <c r="J65" s="291"/>
-      <c r="K65" s="260" t="s">
+      <c r="F65" s="257"/>
+      <c r="G65" s="257"/>
+      <c r="H65" s="257"/>
+      <c r="I65" s="257"/>
+      <c r="J65" s="258"/>
+      <c r="K65" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="261"/>
-      <c r="M65" s="261"/>
-      <c r="N65" s="261"/>
-      <c r="O65" s="261"/>
-      <c r="P65" s="261"/>
-      <c r="Q65" s="262"/>
-      <c r="R65" s="260" t="s">
+      <c r="L65" s="254"/>
+      <c r="M65" s="254"/>
+      <c r="N65" s="254"/>
+      <c r="O65" s="254"/>
+      <c r="P65" s="254"/>
+      <c r="Q65" s="255"/>
+      <c r="R65" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="S65" s="261"/>
-      <c r="T65" s="261"/>
-      <c r="U65" s="261"/>
-      <c r="V65" s="261"/>
-      <c r="W65" s="261"/>
-      <c r="X65" s="261"/>
-      <c r="Y65" s="262"/>
-      <c r="Z65" s="260" t="s">
+      <c r="S65" s="254"/>
+      <c r="T65" s="254"/>
+      <c r="U65" s="254"/>
+      <c r="V65" s="254"/>
+      <c r="W65" s="254"/>
+      <c r="X65" s="254"/>
+      <c r="Y65" s="255"/>
+      <c r="Z65" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="AA65" s="261"/>
-      <c r="AB65" s="261"/>
-      <c r="AC65" s="261"/>
-      <c r="AD65" s="262"/>
-      <c r="AE65" s="265" t="s">
+      <c r="AA65" s="254"/>
+      <c r="AB65" s="254"/>
+      <c r="AC65" s="254"/>
+      <c r="AD65" s="255"/>
+      <c r="AE65" s="275" t="s">
         <v>82</v>
       </c>
-      <c r="AF65" s="266"/>
-      <c r="AG65" s="266"/>
-      <c r="AH65" s="267"/>
-    </row>
-    <row r="66" spans="1:56" ht="27" customHeight="1">
+      <c r="AF65" s="276"/>
+      <c r="AG65" s="276"/>
+      <c r="AH65" s="277"/>
+    </row>
+    <row r="66" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="119">
         <v>2</v>
       </c>
-      <c r="E66" s="277" t="s">
+      <c r="E66" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="278"/>
-      <c r="G66" s="278"/>
-      <c r="H66" s="278"/>
-      <c r="I66" s="278"/>
-      <c r="J66" s="279"/>
-      <c r="K66" s="277" t="s">
+      <c r="F66" s="244"/>
+      <c r="G66" s="244"/>
+      <c r="H66" s="244"/>
+      <c r="I66" s="244"/>
+      <c r="J66" s="245"/>
+      <c r="K66" s="243" t="s">
         <v>84</v>
       </c>
-      <c r="L66" s="278"/>
-      <c r="M66" s="278"/>
-      <c r="N66" s="278"/>
-      <c r="O66" s="278"/>
-      <c r="P66" s="278"/>
-      <c r="Q66" s="279"/>
-      <c r="R66" s="277" t="s">
+      <c r="L66" s="244"/>
+      <c r="M66" s="244"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="244"/>
+      <c r="P66" s="244"/>
+      <c r="Q66" s="245"/>
+      <c r="R66" s="243" t="s">
         <v>85</v>
       </c>
-      <c r="S66" s="278"/>
-      <c r="T66" s="278"/>
-      <c r="U66" s="278"/>
-      <c r="V66" s="278"/>
-      <c r="W66" s="278"/>
-      <c r="X66" s="278"/>
-      <c r="Y66" s="279"/>
-      <c r="Z66" s="277" t="s">
+      <c r="S66" s="244"/>
+      <c r="T66" s="244"/>
+      <c r="U66" s="244"/>
+      <c r="V66" s="244"/>
+      <c r="W66" s="244"/>
+      <c r="X66" s="244"/>
+      <c r="Y66" s="245"/>
+      <c r="Z66" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="AA66" s="278"/>
-      <c r="AB66" s="278"/>
-      <c r="AC66" s="278"/>
-      <c r="AD66" s="279"/>
-      <c r="AE66" s="268" t="s">
+      <c r="AA66" s="244"/>
+      <c r="AB66" s="244"/>
+      <c r="AC66" s="244"/>
+      <c r="AD66" s="245"/>
+      <c r="AE66" s="246" t="s">
         <v>82</v>
       </c>
-      <c r="AF66" s="269"/>
-      <c r="AG66" s="269"/>
-      <c r="AH66" s="270"/>
-    </row>
-    <row r="67" spans="1:56" ht="27" customHeight="1">
+      <c r="AF66" s="247"/>
+      <c r="AG66" s="247"/>
+      <c r="AH66" s="248"/>
+    </row>
+    <row r="67" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="118">
         <v>3</v>
       </c>
-      <c r="E67" s="289" t="s">
+      <c r="E67" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="F67" s="290"/>
-      <c r="G67" s="290"/>
-      <c r="H67" s="290"/>
-      <c r="I67" s="290"/>
-      <c r="J67" s="291"/>
-      <c r="K67" s="260" t="s">
+      <c r="F67" s="257"/>
+      <c r="G67" s="257"/>
+      <c r="H67" s="257"/>
+      <c r="I67" s="257"/>
+      <c r="J67" s="258"/>
+      <c r="K67" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="L67" s="261"/>
-      <c r="M67" s="261"/>
-      <c r="N67" s="261"/>
-      <c r="O67" s="261"/>
-      <c r="P67" s="261"/>
-      <c r="Q67" s="262"/>
-      <c r="R67" s="260" t="s">
+      <c r="L67" s="254"/>
+      <c r="M67" s="254"/>
+      <c r="N67" s="254"/>
+      <c r="O67" s="254"/>
+      <c r="P67" s="254"/>
+      <c r="Q67" s="255"/>
+      <c r="R67" s="253" t="s">
         <v>88</v>
       </c>
-      <c r="S67" s="261"/>
-      <c r="T67" s="261"/>
-      <c r="U67" s="261"/>
-      <c r="V67" s="261"/>
-      <c r="W67" s="261"/>
-      <c r="X67" s="261"/>
-      <c r="Y67" s="262"/>
-      <c r="Z67" s="289" t="s">
+      <c r="S67" s="254"/>
+      <c r="T67" s="254"/>
+      <c r="U67" s="254"/>
+      <c r="V67" s="254"/>
+      <c r="W67" s="254"/>
+      <c r="X67" s="254"/>
+      <c r="Y67" s="255"/>
+      <c r="Z67" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="AA67" s="290"/>
-      <c r="AB67" s="290"/>
-      <c r="AC67" s="290"/>
-      <c r="AD67" s="291"/>
-      <c r="AE67" s="265" t="s">
+      <c r="AA67" s="257"/>
+      <c r="AB67" s="257"/>
+      <c r="AC67" s="257"/>
+      <c r="AD67" s="258"/>
+      <c r="AE67" s="275" t="s">
         <v>82</v>
       </c>
-      <c r="AF67" s="266"/>
-      <c r="AG67" s="266"/>
-      <c r="AH67" s="267"/>
-    </row>
-    <row r="68" spans="1:56" ht="27" customHeight="1">
+      <c r="AF67" s="276"/>
+      <c r="AG67" s="276"/>
+      <c r="AH67" s="277"/>
+    </row>
+    <row r="68" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="119">
         <v>4</v>
       </c>
-      <c r="E68" s="277" t="s">
+      <c r="E68" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="278"/>
-      <c r="G68" s="278"/>
-      <c r="H68" s="278"/>
-      <c r="I68" s="278"/>
-      <c r="J68" s="279"/>
-      <c r="K68" s="277" t="s">
+      <c r="F68" s="244"/>
+      <c r="G68" s="244"/>
+      <c r="H68" s="244"/>
+      <c r="I68" s="244"/>
+      <c r="J68" s="245"/>
+      <c r="K68" s="243" t="s">
         <v>90</v>
       </c>
-      <c r="L68" s="278"/>
-      <c r="M68" s="278"/>
-      <c r="N68" s="278"/>
-      <c r="O68" s="278"/>
-      <c r="P68" s="278"/>
-      <c r="Q68" s="279"/>
-      <c r="R68" s="277" t="s">
+      <c r="L68" s="244"/>
+      <c r="M68" s="244"/>
+      <c r="N68" s="244"/>
+      <c r="O68" s="244"/>
+      <c r="P68" s="244"/>
+      <c r="Q68" s="245"/>
+      <c r="R68" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="S68" s="278"/>
-      <c r="T68" s="278"/>
-      <c r="U68" s="278"/>
-      <c r="V68" s="278"/>
-      <c r="W68" s="278"/>
-      <c r="X68" s="278"/>
-      <c r="Y68" s="279"/>
-      <c r="Z68" s="277" t="s">
+      <c r="S68" s="244"/>
+      <c r="T68" s="244"/>
+      <c r="U68" s="244"/>
+      <c r="V68" s="244"/>
+      <c r="W68" s="244"/>
+      <c r="X68" s="244"/>
+      <c r="Y68" s="245"/>
+      <c r="Z68" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="AA68" s="278"/>
-      <c r="AB68" s="278"/>
-      <c r="AC68" s="278"/>
-      <c r="AD68" s="279"/>
-      <c r="AE68" s="268" t="s">
+      <c r="AA68" s="244"/>
+      <c r="AB68" s="244"/>
+      <c r="AC68" s="244"/>
+      <c r="AD68" s="245"/>
+      <c r="AE68" s="246" t="s">
         <v>82</v>
       </c>
-      <c r="AF68" s="269"/>
-      <c r="AG68" s="269"/>
-      <c r="AH68" s="270"/>
+      <c r="AF68" s="247"/>
+      <c r="AG68" s="247"/>
+      <c r="AH68" s="248"/>
       <c r="AN68" s="42"/>
       <c r="AO68" s="42"/>
       <c r="AP68" s="42"/>
     </row>
-    <row r="69" spans="1:56" ht="27" customHeight="1">
+    <row r="69" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="119">
         <v>5</v>
       </c>
-      <c r="E69" s="277" t="s">
+      <c r="E69" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="F69" s="278"/>
-      <c r="G69" s="278"/>
-      <c r="H69" s="278"/>
-      <c r="I69" s="278"/>
-      <c r="J69" s="279"/>
-      <c r="K69" s="277" t="s">
+      <c r="F69" s="244"/>
+      <c r="G69" s="244"/>
+      <c r="H69" s="244"/>
+      <c r="I69" s="244"/>
+      <c r="J69" s="245"/>
+      <c r="K69" s="243" t="s">
         <v>93</v>
       </c>
-      <c r="L69" s="278"/>
-      <c r="M69" s="278"/>
-      <c r="N69" s="278"/>
-      <c r="O69" s="278"/>
-      <c r="P69" s="278"/>
-      <c r="Q69" s="279"/>
-      <c r="R69" s="277" t="s">
+      <c r="L69" s="244"/>
+      <c r="M69" s="244"/>
+      <c r="N69" s="244"/>
+      <c r="O69" s="244"/>
+      <c r="P69" s="244"/>
+      <c r="Q69" s="245"/>
+      <c r="R69" s="243" t="s">
         <v>94</v>
       </c>
-      <c r="S69" s="278"/>
-      <c r="T69" s="278"/>
-      <c r="U69" s="278"/>
-      <c r="V69" s="278"/>
-      <c r="W69" s="278"/>
-      <c r="X69" s="278"/>
-      <c r="Y69" s="279"/>
-      <c r="Z69" s="277" t="s">
+      <c r="S69" s="244"/>
+      <c r="T69" s="244"/>
+      <c r="U69" s="244"/>
+      <c r="V69" s="244"/>
+      <c r="W69" s="244"/>
+      <c r="X69" s="244"/>
+      <c r="Y69" s="245"/>
+      <c r="Z69" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="AA69" s="278"/>
-      <c r="AB69" s="278"/>
-      <c r="AC69" s="278"/>
-      <c r="AD69" s="279"/>
-      <c r="AE69" s="268" t="s">
+      <c r="AA69" s="244"/>
+      <c r="AB69" s="244"/>
+      <c r="AC69" s="244"/>
+      <c r="AD69" s="245"/>
+      <c r="AE69" s="246" t="s">
         <v>82</v>
       </c>
-      <c r="AF69" s="269"/>
-      <c r="AG69" s="269"/>
-      <c r="AH69" s="270"/>
+      <c r="AF69" s="247"/>
+      <c r="AG69" s="247"/>
+      <c r="AH69" s="248"/>
       <c r="AN69" s="42"/>
       <c r="AO69" s="42"/>
       <c r="AP69" s="42"/>
     </row>
-    <row r="70" spans="1:56" ht="27" customHeight="1">
+    <row r="70" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="119">
         <v>6</v>
       </c>
-      <c r="E70" s="277" t="s">
+      <c r="E70" s="243" t="s">
         <v>95</v>
       </c>
-      <c r="F70" s="278"/>
-      <c r="G70" s="278"/>
-      <c r="H70" s="278"/>
-      <c r="I70" s="278"/>
-      <c r="J70" s="279"/>
-      <c r="K70" s="277" t="s">
+      <c r="F70" s="244"/>
+      <c r="G70" s="244"/>
+      <c r="H70" s="244"/>
+      <c r="I70" s="244"/>
+      <c r="J70" s="245"/>
+      <c r="K70" s="243" t="s">
         <v>96</v>
       </c>
-      <c r="L70" s="278"/>
-      <c r="M70" s="278"/>
-      <c r="N70" s="278"/>
-      <c r="O70" s="278"/>
-      <c r="P70" s="278"/>
-      <c r="Q70" s="279"/>
-      <c r="R70" s="277" t="s">
+      <c r="L70" s="244"/>
+      <c r="M70" s="244"/>
+      <c r="N70" s="244"/>
+      <c r="O70" s="244"/>
+      <c r="P70" s="244"/>
+      <c r="Q70" s="245"/>
+      <c r="R70" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="S70" s="278"/>
-      <c r="T70" s="278"/>
-      <c r="U70" s="278"/>
-      <c r="V70" s="278"/>
-      <c r="W70" s="278"/>
-      <c r="X70" s="278"/>
-      <c r="Y70" s="279"/>
-      <c r="Z70" s="277" t="s">
+      <c r="S70" s="244"/>
+      <c r="T70" s="244"/>
+      <c r="U70" s="244"/>
+      <c r="V70" s="244"/>
+      <c r="W70" s="244"/>
+      <c r="X70" s="244"/>
+      <c r="Y70" s="245"/>
+      <c r="Z70" s="243" t="s">
         <v>148</v>
       </c>
-      <c r="AA70" s="278"/>
-      <c r="AB70" s="278"/>
-      <c r="AC70" s="278"/>
-      <c r="AD70" s="279"/>
-      <c r="AE70" s="268" t="s">
+      <c r="AA70" s="244"/>
+      <c r="AB70" s="244"/>
+      <c r="AC70" s="244"/>
+      <c r="AD70" s="245"/>
+      <c r="AE70" s="246" t="s">
         <v>82</v>
       </c>
-      <c r="AF70" s="269"/>
-      <c r="AG70" s="269"/>
-      <c r="AH70" s="270"/>
-    </row>
-    <row r="71" spans="1:56" ht="27" customHeight="1">
+      <c r="AF70" s="247"/>
+      <c r="AG70" s="247"/>
+      <c r="AH70" s="248"/>
+    </row>
+    <row r="71" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="119">
         <v>7</v>
       </c>
-      <c r="E71" s="277" t="s">
+      <c r="E71" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="F71" s="278"/>
-      <c r="G71" s="278"/>
-      <c r="H71" s="278"/>
-      <c r="I71" s="278"/>
-      <c r="J71" s="279"/>
-      <c r="K71" s="277" t="s">
+      <c r="F71" s="244"/>
+      <c r="G71" s="244"/>
+      <c r="H71" s="244"/>
+      <c r="I71" s="244"/>
+      <c r="J71" s="245"/>
+      <c r="K71" s="243" t="s">
         <v>99</v>
       </c>
-      <c r="L71" s="278"/>
-      <c r="M71" s="278"/>
-      <c r="N71" s="278"/>
-      <c r="O71" s="278"/>
-      <c r="P71" s="278"/>
-      <c r="Q71" s="279"/>
-      <c r="R71" s="277" t="s">
+      <c r="L71" s="244"/>
+      <c r="M71" s="244"/>
+      <c r="N71" s="244"/>
+      <c r="O71" s="244"/>
+      <c r="P71" s="244"/>
+      <c r="Q71" s="245"/>
+      <c r="R71" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="S71" s="278"/>
-      <c r="T71" s="278"/>
-      <c r="U71" s="278"/>
-      <c r="V71" s="278"/>
-      <c r="W71" s="278"/>
-      <c r="X71" s="278"/>
-      <c r="Y71" s="279"/>
-      <c r="Z71" s="277" t="s">
+      <c r="S71" s="244"/>
+      <c r="T71" s="244"/>
+      <c r="U71" s="244"/>
+      <c r="V71" s="244"/>
+      <c r="W71" s="244"/>
+      <c r="X71" s="244"/>
+      <c r="Y71" s="245"/>
+      <c r="Z71" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="AA71" s="278"/>
-      <c r="AB71" s="278"/>
-      <c r="AC71" s="278"/>
-      <c r="AD71" s="279"/>
-      <c r="AE71" s="268" t="s">
+      <c r="AA71" s="244"/>
+      <c r="AB71" s="244"/>
+      <c r="AC71" s="244"/>
+      <c r="AD71" s="245"/>
+      <c r="AE71" s="246" t="s">
         <v>82</v>
       </c>
-      <c r="AF71" s="269"/>
-      <c r="AG71" s="269"/>
-      <c r="AH71" s="270"/>
-    </row>
-    <row r="72" spans="1:56" s="56" customFormat="1">
+      <c r="AF71" s="247"/>
+      <c r="AG71" s="247"/>
+      <c r="AH71" s="248"/>
+    </row>
+    <row r="72" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D72" s="120"/>
       <c r="E72" s="121"/>
       <c r="F72" s="121"/>
@@ -8979,7 +8861,7 @@
       <c r="AO72" s="38"/>
       <c r="AP72" s="38"/>
     </row>
-    <row r="73" spans="1:56">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -9031,7 +8913,7 @@
       <c r="BA73" s="42"/>
       <c r="BB73" s="42"/>
     </row>
-    <row r="74" spans="1:56">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C74" s="42" t="s">
         <v>49</v>
       </c>
@@ -9057,7 +8939,7 @@
       <c r="BC74" s="42"/>
       <c r="BD74" s="42"/>
     </row>
-    <row r="75" spans="1:56" ht="11.25" customHeight="1">
+    <row r="75" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="42"/>
       <c r="D75" s="122" t="s">
         <v>101</v>
@@ -9079,7 +8961,7 @@
       <c r="BC75" s="42"/>
       <c r="BD75" s="42"/>
     </row>
-    <row r="76" spans="1:56" ht="11.25" customHeight="1">
+    <row r="76" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="42"/>
       <c r="D76" s="122"/>
       <c r="E76" s="122"/>
@@ -9099,7 +8981,7 @@
       <c r="BC76" s="42"/>
       <c r="BD76" s="42"/>
     </row>
-    <row r="77" spans="1:56" s="56" customFormat="1" ht="11.25" customHeight="1">
+    <row r="77" spans="1:56" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="38"/>
       <c r="D77" s="122"/>
       <c r="E77" s="122" t="s">
@@ -9107,13 +8989,13 @@
       </c>
       <c r="AP77" s="38"/>
     </row>
-    <row r="78" spans="1:56">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C78" s="42"/>
       <c r="D78" s="122"/>
       <c r="E78" s="122"/>
       <c r="F78" s="122"/>
     </row>
-    <row r="79" spans="1:56" ht="11.25" customHeight="1">
+    <row r="79" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="42"/>
       <c r="D79" s="122"/>
       <c r="E79" s="122"/>
@@ -9122,7 +9004,7 @@
       </c>
       <c r="AP79" s="42"/>
     </row>
-    <row r="80" spans="1:56" s="56" customFormat="1">
+    <row r="80" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="38"/>
       <c r="B80" s="44"/>
       <c r="C80" s="38"/>
@@ -9159,13 +9041,13 @@
       <c r="AI80" s="124"/>
       <c r="AJ80" s="104"/>
     </row>
-    <row r="81" spans="3:58" ht="11.25" customHeight="1">
+    <row r="81" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="42"/>
       <c r="D81" s="122"/>
       <c r="E81" s="122"/>
       <c r="AP81" s="42"/>
     </row>
-    <row r="82" spans="3:58">
+    <row r="82" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E82" s="54" t="s">
         <v>104</v>
       </c>
@@ -9194,7 +9076,7 @@
       <c r="BE82" s="125"/>
       <c r="BF82" s="125"/>
     </row>
-    <row r="83" spans="3:58">
+    <row r="83" spans="3:58" x14ac:dyDescent="0.2">
       <c r="H83" s="44"/>
       <c r="AJ83" s="125"/>
       <c r="AK83" s="125"/>
@@ -9220,7 +9102,7 @@
       <c r="BE83" s="125"/>
       <c r="BF83" s="125"/>
     </row>
-    <row r="84" spans="3:58">
+    <row r="84" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E84" s="66"/>
       <c r="F84" s="66" t="s">
         <v>105</v>
@@ -9249,7 +9131,7 @@
       <c r="BE84" s="125"/>
       <c r="BF84" s="125"/>
     </row>
-    <row r="85" spans="3:58">
+    <row r="85" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E85" s="66"/>
       <c r="F85" s="126"/>
       <c r="G85" s="66" t="s">
@@ -9279,7 +9161,7 @@
       <c r="BE85" s="125"/>
       <c r="BF85" s="125"/>
     </row>
-    <row r="86" spans="3:58">
+    <row r="86" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E86" s="66"/>
       <c r="F86" s="126"/>
       <c r="G86" s="66" t="s">
@@ -9309,7 +9191,7 @@
       <c r="BE86" s="125"/>
       <c r="BF86" s="125"/>
     </row>
-    <row r="87" spans="3:58">
+    <row r="87" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E87" s="66"/>
       <c r="F87" s="126"/>
       <c r="G87" s="66" t="s">
@@ -9339,7 +9221,7 @@
       <c r="BE87" s="125"/>
       <c r="BF87" s="125"/>
     </row>
-    <row r="88" spans="3:58">
+    <row r="88" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E88" s="66"/>
       <c r="F88" s="126"/>
       <c r="G88" s="66" t="s">
@@ -9369,7 +9251,7 @@
       <c r="BE88" s="125"/>
       <c r="BF88" s="125"/>
     </row>
-    <row r="89" spans="3:58">
+    <row r="89" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E89" s="66"/>
       <c r="F89" s="126"/>
       <c r="G89" s="66" t="s">
@@ -9399,7 +9281,7 @@
       <c r="BE89" s="125"/>
       <c r="BF89" s="125"/>
     </row>
-    <row r="90" spans="3:58">
+    <row r="90" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E90" s="66"/>
       <c r="F90" s="126"/>
       <c r="G90" s="66"/>
@@ -9427,7 +9309,7 @@
       <c r="BE90" s="125"/>
       <c r="BF90" s="125"/>
     </row>
-    <row r="91" spans="3:58">
+    <row r="91" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E91" s="66"/>
       <c r="AJ91" s="125"/>
       <c r="AK91" s="125"/>
@@ -9453,22 +9335,22 @@
       <c r="BE91" s="125"/>
       <c r="BF91" s="125"/>
     </row>
-    <row r="92" spans="3:58">
+    <row r="92" spans="3:58" x14ac:dyDescent="0.2">
       <c r="D92" s="54" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="3:58">
+    <row r="94" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E94" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="3:58">
+    <row r="96" spans="3:58" x14ac:dyDescent="0.2">
       <c r="F96" s="54" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:58" s="56" customFormat="1">
+    <row r="97" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="38"/>
       <c r="B97" s="44"/>
       <c r="C97" s="38"/>
@@ -9505,7 +9387,7 @@
       <c r="AI97" s="124"/>
       <c r="AJ97" s="104"/>
     </row>
-    <row r="98" spans="1:58">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E98" s="66"/>
       <c r="AJ98" s="125"/>
       <c r="AK98" s="125"/>
@@ -9531,22 +9413,22 @@
       <c r="BE98" s="125"/>
       <c r="BF98" s="125"/>
     </row>
-    <row r="99" spans="1:58">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D99" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:58">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E101" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:58">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F103" s="54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:58" s="56" customFormat="1">
+    <row r="104" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="38"/>
       <c r="B104" s="44"/>
       <c r="C104" s="38"/>
@@ -9583,7 +9465,7 @@
       <c r="AI104" s="124"/>
       <c r="AJ104" s="104"/>
     </row>
-    <row r="105" spans="1:58">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E105" s="66"/>
       <c r="AJ105" s="125"/>
       <c r="AK105" s="125"/>
@@ -9609,22 +9491,22 @@
       <c r="BE105" s="125"/>
       <c r="BF105" s="125"/>
     </row>
-    <row r="106" spans="1:58">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D106" s="54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:58">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E108" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:58">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F110" s="54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:58" s="56" customFormat="1">
+    <row r="111" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="38"/>
       <c r="B111" s="44"/>
       <c r="C111" s="38"/>
@@ -9661,7 +9543,7 @@
       <c r="AI111" s="124"/>
       <c r="AJ111" s="104"/>
     </row>
-    <row r="112" spans="1:58">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E112" s="66"/>
       <c r="AJ112" s="125"/>
       <c r="AK112" s="125"/>
@@ -9687,22 +9569,22 @@
       <c r="BE112" s="125"/>
       <c r="BF112" s="125"/>
     </row>
-    <row r="113" spans="1:58">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D113" s="54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:58">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E115" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:58">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F117" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:58" s="56" customFormat="1">
+    <row r="118" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="38"/>
       <c r="B118" s="44"/>
       <c r="C118" s="38"/>
@@ -9739,22 +9621,22 @@
       <c r="AI118" s="124"/>
       <c r="AJ118" s="104"/>
     </row>
-    <row r="119" spans="1:58">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D119" s="54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:58">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E121" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:58">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F123" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:58" s="56" customFormat="1">
+    <row r="124" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="38"/>
       <c r="B124" s="44"/>
       <c r="C124" s="38"/>
@@ -9791,7 +9673,7 @@
       <c r="AI124" s="124"/>
       <c r="AJ124" s="104"/>
     </row>
-    <row r="125" spans="1:58">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E125" s="66"/>
       <c r="AJ125" s="125"/>
       <c r="AK125" s="125"/>
@@ -9817,22 +9699,22 @@
       <c r="BE125" s="125"/>
       <c r="BF125" s="125"/>
     </row>
-    <row r="126" spans="1:58">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D126" s="54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:58">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E128" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:58">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F130" s="54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:58" s="56" customFormat="1">
+    <row r="131" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="38"/>
       <c r="B131" s="44"/>
       <c r="C131" s="38"/>
@@ -9869,7 +9751,7 @@
       <c r="AI131" s="124"/>
       <c r="AJ131" s="104"/>
     </row>
-    <row r="132" spans="1:58">
+    <row r="132" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E132" s="66"/>
       <c r="AJ132" s="125"/>
       <c r="AK132" s="125"/>
@@ -9895,7 +9777,7 @@
       <c r="BE132" s="125"/>
       <c r="BF132" s="125"/>
     </row>
-    <row r="133" spans="1:58" s="56" customFormat="1">
+    <row r="133" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="38"/>
       <c r="B133" s="44"/>
       <c r="C133" s="38"/>
@@ -9934,6 +9816,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="V57:AH58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE65:AH65"/>
     <mergeCell ref="Z71:AD71"/>
     <mergeCell ref="AE71:AH71"/>
     <mergeCell ref="R64:Y64"/>
@@ -9950,80 +9906,6 @@
     <mergeCell ref="Z67:AD67"/>
     <mergeCell ref="R69:Y69"/>
     <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="V57:AH58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -10080,7 +9962,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="54" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="54" bestFit="1" customWidth="1"/>
@@ -10089,7 +9971,7 @@
     <col min="5" max="16384" width="9.33203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>124</v>
       </c>
@@ -10103,7 +9985,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="111" t="s">
         <v>39</v>
       </c>
@@ -10117,7 +9999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
         <v>128</v>
       </c>
@@ -10131,7 +10013,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="111" t="s">
         <v>132</v>
       </c>
@@ -10145,7 +10027,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="111" t="s">
         <v>136</v>
       </c>
@@ -10156,7 +10038,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="111" t="s">
         <v>139</v>
       </c>
@@ -10164,7 +10046,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="111" t="s">
         <v>141</v>
       </c>
@@ -10172,27 +10054,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="111" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="111" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="111" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="111" t="s">
         <v>147</v>
       </c>
